--- a/Symphony/DECEMBER/20.12.2021/MC Bank Statement December-2021.xlsx
+++ b/Symphony/DECEMBER/20.12.2021/MC Bank Statement December-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\Symphony\DECEMBER\19.12.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\Symphony\DECEMBER\20.12.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,12 +95,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="F22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rubel+Kamrul+Tutul</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SR Electronics 1% Less</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="248">
   <si>
     <t>Date</t>
   </si>
@@ -546,9 +574,6 @@
     <t>01.09.2021</t>
   </si>
   <si>
-    <t>Office Cost</t>
-  </si>
-  <si>
     <t>Dighi Telecom</t>
   </si>
   <si>
@@ -804,9 +829,6 @@
     <t>19.12.2021</t>
   </si>
   <si>
-    <t>Date:19.12.2021</t>
-  </si>
-  <si>
     <t>Symphony  Balance(+)</t>
   </si>
   <si>
@@ -826,6 +848,30 @@
   </si>
   <si>
     <t>N=Mobile Park</t>
+  </si>
+  <si>
+    <t>20.12.2021</t>
+  </si>
+  <si>
+    <t>Date:20.12.2021</t>
+  </si>
+  <si>
+    <t>DSR Bijoy Campaign</t>
+  </si>
+  <si>
+    <t>Chaskoir</t>
+  </si>
+  <si>
+    <t>Galaxy Mobile</t>
+  </si>
+  <si>
+    <t>SR Electonics</t>
+  </si>
+  <si>
+    <t>Office Pase</t>
+  </si>
+  <si>
+    <t>Tuton Dada</t>
   </si>
 </sst>
 </file>
@@ -3107,6 +3153,12 @@
     <xf numFmtId="1" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="44" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="44" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3118,6 +3170,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3146,22 +3210,10 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3253,12 +3305,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="44" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="44" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3926,33 +3972,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="317"/>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
+      <c r="A1" s="319"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="318"/>
-      <c r="B2" s="315" t="s">
+      <c r="A2" s="320"/>
+      <c r="B2" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="315"/>
-      <c r="D2" s="315"/>
-      <c r="E2" s="315"/>
+      <c r="C2" s="317"/>
+      <c r="D2" s="317"/>
+      <c r="E2" s="317"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="318"/>
-      <c r="B3" s="316" t="s">
+      <c r="A3" s="320"/>
+      <c r="B3" s="318" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
+      <c r="C3" s="318"/>
+      <c r="D3" s="318"/>
+      <c r="E3" s="318"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="318"/>
+      <c r="A4" s="320"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -3970,7 +4016,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="318"/>
+      <c r="A5" s="320"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -3988,7 +4034,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="318"/>
+      <c r="A6" s="320"/>
       <c r="B6" s="28"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -4000,7 +4046,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="318"/>
+      <c r="A7" s="320"/>
       <c r="B7" s="28" t="s">
         <v>61</v>
       </c>
@@ -4019,7 +4065,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="318"/>
+      <c r="A8" s="320"/>
       <c r="B8" s="28" t="s">
         <v>62</v>
       </c>
@@ -4038,7 +4084,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="318"/>
+      <c r="A9" s="320"/>
       <c r="B9" s="28" t="s">
         <v>64</v>
       </c>
@@ -4057,7 +4103,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="318"/>
+      <c r="A10" s="320"/>
       <c r="B10" s="28" t="s">
         <v>65</v>
       </c>
@@ -4076,7 +4122,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="318"/>
+      <c r="A11" s="320"/>
       <c r="B11" s="28" t="s">
         <v>66</v>
       </c>
@@ -4095,7 +4141,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="318"/>
+      <c r="A12" s="320"/>
       <c r="B12" s="28" t="s">
         <v>67</v>
       </c>
@@ -4114,7 +4160,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="318"/>
+      <c r="A13" s="320"/>
       <c r="B13" s="28" t="s">
         <v>68</v>
       </c>
@@ -4133,7 +4179,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="318"/>
+      <c r="A14" s="320"/>
       <c r="B14" s="28" t="s">
         <v>69</v>
       </c>
@@ -4152,7 +4198,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="318"/>
+      <c r="A15" s="320"/>
       <c r="B15" s="28" t="s">
         <v>70</v>
       </c>
@@ -4171,7 +4217,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="318"/>
+      <c r="A16" s="320"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -4184,7 +4230,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="318"/>
+      <c r="A17" s="320"/>
       <c r="B17" s="28"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -4197,7 +4243,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="318"/>
+      <c r="A18" s="320"/>
       <c r="B18" s="28"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -4210,7 +4256,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="318"/>
+      <c r="A19" s="320"/>
       <c r="B19" s="28"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -4223,7 +4269,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="318"/>
+      <c r="A20" s="320"/>
       <c r="B20" s="28"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -4236,7 +4282,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="318"/>
+      <c r="A21" s="320"/>
       <c r="B21" s="28"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -4249,7 +4295,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="318"/>
+      <c r="A22" s="320"/>
       <c r="B22" s="28"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -4262,7 +4308,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="318"/>
+      <c r="A23" s="320"/>
       <c r="B23" s="28"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -4275,7 +4321,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="318"/>
+      <c r="A24" s="320"/>
       <c r="B24" s="28"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -4288,7 +4334,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="318"/>
+      <c r="A25" s="320"/>
       <c r="B25" s="28"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -4301,7 +4347,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="318"/>
+      <c r="A26" s="320"/>
       <c r="B26" s="28"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -4314,7 +4360,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="318"/>
+      <c r="A27" s="320"/>
       <c r="B27" s="28"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -4327,7 +4373,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="318"/>
+      <c r="A28" s="320"/>
       <c r="B28" s="28"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -4340,7 +4386,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="318"/>
+      <c r="A29" s="320"/>
       <c r="B29" s="28"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -4353,7 +4399,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="318"/>
+      <c r="A30" s="320"/>
       <c r="B30" s="28"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -4366,7 +4412,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="318"/>
+      <c r="A31" s="320"/>
       <c r="B31" s="28"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -4379,7 +4425,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="318"/>
+      <c r="A32" s="320"/>
       <c r="B32" s="28"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -4392,7 +4438,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="318"/>
+      <c r="A33" s="320"/>
       <c r="B33" s="28"/>
       <c r="C33" s="27"/>
       <c r="D33" s="30"/>
@@ -4405,7 +4451,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="318"/>
+      <c r="A34" s="320"/>
       <c r="B34" s="28"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4418,7 +4464,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="318"/>
+      <c r="A35" s="320"/>
       <c r="B35" s="28"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4431,7 +4477,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="318"/>
+      <c r="A36" s="320"/>
       <c r="B36" s="28"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -4444,7 +4490,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="318"/>
+      <c r="A37" s="320"/>
       <c r="B37" s="28"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -4457,7 +4503,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="318"/>
+      <c r="A38" s="320"/>
       <c r="B38" s="28"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -4470,7 +4516,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="318"/>
+      <c r="A39" s="320"/>
       <c r="B39" s="28"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -4483,7 +4529,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="318"/>
+      <c r="A40" s="320"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -4496,7 +4542,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="318"/>
+      <c r="A41" s="320"/>
       <c r="B41" s="28"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -4509,7 +4555,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="318"/>
+      <c r="A42" s="320"/>
       <c r="B42" s="28"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -4522,7 +4568,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="318"/>
+      <c r="A43" s="320"/>
       <c r="B43" s="28"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -4535,7 +4581,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="318"/>
+      <c r="A44" s="320"/>
       <c r="B44" s="28"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -4548,7 +4594,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="318"/>
+      <c r="A45" s="320"/>
       <c r="B45" s="28"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -4561,7 +4607,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="318"/>
+      <c r="A46" s="320"/>
       <c r="B46" s="28"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -4574,7 +4620,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="318"/>
+      <c r="A47" s="320"/>
       <c r="B47" s="28"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -4587,7 +4633,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="318"/>
+      <c r="A48" s="320"/>
       <c r="B48" s="28"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -4600,7 +4646,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="318"/>
+      <c r="A49" s="320"/>
       <c r="B49" s="28"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -4613,7 +4659,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="318"/>
+      <c r="A50" s="320"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -4626,7 +4672,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="318"/>
+      <c r="A51" s="320"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -4639,7 +4685,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="318"/>
+      <c r="A52" s="320"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -4652,7 +4698,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="318"/>
+      <c r="A53" s="320"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -4665,7 +4711,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="318"/>
+      <c r="A54" s="320"/>
       <c r="B54" s="28"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -4678,7 +4724,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="318"/>
+      <c r="A55" s="320"/>
       <c r="B55" s="28"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -4690,7 +4736,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="318"/>
+      <c r="A56" s="320"/>
       <c r="B56" s="28"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -4702,7 +4748,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="318"/>
+      <c r="A57" s="320"/>
       <c r="B57" s="28"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -4714,7 +4760,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="318"/>
+      <c r="A58" s="320"/>
       <c r="B58" s="28"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -4726,7 +4772,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="318"/>
+      <c r="A59" s="320"/>
       <c r="B59" s="28"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -4738,7 +4784,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="318"/>
+      <c r="A60" s="320"/>
       <c r="B60" s="28"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -4750,7 +4796,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="318"/>
+      <c r="A61" s="320"/>
       <c r="B61" s="28"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -4762,7 +4808,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="318"/>
+      <c r="A62" s="320"/>
       <c r="B62" s="28"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -4774,7 +4820,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="318"/>
+      <c r="A63" s="320"/>
       <c r="B63" s="28"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -4786,7 +4832,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="318"/>
+      <c r="A64" s="320"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -4798,7 +4844,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="318"/>
+      <c r="A65" s="320"/>
       <c r="B65" s="28"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -4810,7 +4856,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="318"/>
+      <c r="A66" s="320"/>
       <c r="B66" s="28"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -4822,7 +4868,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="318"/>
+      <c r="A67" s="320"/>
       <c r="B67" s="28"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -4834,7 +4880,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="318"/>
+      <c r="A68" s="320"/>
       <c r="B68" s="28"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -4846,7 +4892,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="318"/>
+      <c r="A69" s="320"/>
       <c r="B69" s="28"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -4858,7 +4904,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="318"/>
+      <c r="A70" s="320"/>
       <c r="B70" s="28"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -4870,7 +4916,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="318"/>
+      <c r="A71" s="320"/>
       <c r="B71" s="28"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -4882,7 +4928,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="318"/>
+      <c r="A72" s="320"/>
       <c r="B72" s="28"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -4894,7 +4940,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="318"/>
+      <c r="A73" s="320"/>
       <c r="B73" s="28"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -4906,7 +4952,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="318"/>
+      <c r="A74" s="320"/>
       <c r="B74" s="28"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -4918,7 +4964,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="318"/>
+      <c r="A75" s="320"/>
       <c r="B75" s="28"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -4930,7 +4976,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="318"/>
+      <c r="A76" s="320"/>
       <c r="B76" s="28"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -4942,7 +4988,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="318"/>
+      <c r="A77" s="320"/>
       <c r="B77" s="28"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -4954,7 +5000,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="318"/>
+      <c r="A78" s="320"/>
       <c r="B78" s="28"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -4966,7 +5012,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="318"/>
+      <c r="A79" s="320"/>
       <c r="B79" s="28"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -4978,7 +5024,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="318"/>
+      <c r="A80" s="320"/>
       <c r="B80" s="28"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -4990,7 +5036,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="318"/>
+      <c r="A81" s="320"/>
       <c r="B81" s="28"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -5002,7 +5048,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="318"/>
+      <c r="A82" s="320"/>
       <c r="B82" s="28"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -5014,7 +5060,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="318"/>
+      <c r="A83" s="320"/>
       <c r="B83" s="33"/>
       <c r="C83" s="29">
         <f>SUM(C5:C72)</f>
@@ -5054,7 +5100,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5071,33 +5117,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="317"/>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
+      <c r="A1" s="319"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="318"/>
-      <c r="B2" s="315" t="s">
+      <c r="A2" s="320"/>
+      <c r="B2" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="315"/>
-      <c r="D2" s="315"/>
-      <c r="E2" s="315"/>
+      <c r="C2" s="317"/>
+      <c r="D2" s="317"/>
+      <c r="E2" s="317"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="318"/>
-      <c r="B3" s="316" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
+      <c r="A3" s="320"/>
+      <c r="B3" s="318" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="318"/>
+      <c r="D3" s="318"/>
+      <c r="E3" s="318"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="318"/>
+      <c r="A4" s="320"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -5115,7 +5161,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="318"/>
+      <c r="A5" s="320"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -5133,7 +5179,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="318"/>
+      <c r="A6" s="320"/>
       <c r="B6" s="28"/>
       <c r="C6" s="275"/>
       <c r="D6" s="275"/>
@@ -5145,9 +5191,9 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="318"/>
+      <c r="A7" s="320"/>
       <c r="B7" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" s="275">
         <v>0</v>
@@ -5164,9 +5210,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="318"/>
+      <c r="A8" s="320"/>
       <c r="B8" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="275">
         <v>240000</v>
@@ -5183,9 +5229,9 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="318"/>
+      <c r="A9" s="320"/>
       <c r="B9" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="300">
         <v>46650</v>
@@ -5198,15 +5244,15 @@
         <v>61038</v>
       </c>
       <c r="F9" s="301" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="318"/>
+      <c r="A10" s="320"/>
       <c r="B10" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" s="278">
         <v>0</v>
@@ -5223,9 +5269,9 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="318"/>
+      <c r="A11" s="320"/>
       <c r="B11" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="275">
         <v>750000</v>
@@ -5242,9 +5288,9 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="318"/>
+      <c r="A12" s="320"/>
       <c r="B12" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="275">
         <v>935000</v>
@@ -5261,9 +5307,9 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="318"/>
+      <c r="A13" s="320"/>
       <c r="B13" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="275">
         <v>295000</v>
@@ -5280,9 +5326,9 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="318"/>
+      <c r="A14" s="320"/>
       <c r="B14" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="275">
         <v>320000</v>
@@ -5299,9 +5345,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="318"/>
+      <c r="A15" s="320"/>
       <c r="B15" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C15" s="275">
         <v>100000</v>
@@ -5318,9 +5364,9 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="318"/>
+      <c r="A16" s="320"/>
       <c r="B16" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C16" s="275">
         <v>0</v>
@@ -5337,9 +5383,9 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="318"/>
+      <c r="A17" s="320"/>
       <c r="B17" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" s="275">
         <v>930000</v>
@@ -5356,9 +5402,9 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="318"/>
+      <c r="A18" s="320"/>
       <c r="B18" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" s="275">
         <v>420000</v>
@@ -5375,9 +5421,9 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="318"/>
+      <c r="A19" s="320"/>
       <c r="B19" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C19" s="275">
         <v>200000</v>
@@ -5394,9 +5440,9 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="318"/>
+      <c r="A20" s="320"/>
       <c r="B20" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C20" s="275">
         <v>400000</v>
@@ -5413,9 +5459,9 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="318"/>
+      <c r="A21" s="320"/>
       <c r="B21" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" s="275">
         <v>0</v>
@@ -5432,9 +5478,9 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="318"/>
+      <c r="A22" s="320"/>
       <c r="B22" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="275">
         <v>0</v>
@@ -5451,9 +5497,9 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="318"/>
+      <c r="A23" s="320"/>
       <c r="B23" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C23" s="275">
         <v>650000</v>
@@ -5470,758 +5516,764 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="318"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="275"/>
-      <c r="D24" s="275"/>
+      <c r="A24" s="320"/>
+      <c r="B24" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="275">
+        <v>380000</v>
+      </c>
+      <c r="D24" s="299">
+        <v>350000</v>
+      </c>
       <c r="E24" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="318"/>
+      <c r="A25" s="320"/>
       <c r="B25" s="28"/>
       <c r="C25" s="275"/>
       <c r="D25" s="275"/>
       <c r="E25" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="318"/>
+      <c r="A26" s="320"/>
       <c r="B26" s="28"/>
       <c r="C26" s="275"/>
       <c r="D26" s="275"/>
       <c r="E26" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="318"/>
+      <c r="A27" s="320"/>
       <c r="B27" s="28"/>
       <c r="C27" s="275"/>
       <c r="D27" s="275"/>
       <c r="E27" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="2"/>
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="318"/>
+      <c r="A28" s="320"/>
       <c r="B28" s="28"/>
       <c r="C28" s="275"/>
       <c r="D28" s="275"/>
       <c r="E28" s="277">
         <f>E27+C28-D28</f>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="2"/>
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="318"/>
+      <c r="A29" s="320"/>
       <c r="B29" s="28"/>
       <c r="C29" s="275"/>
       <c r="D29" s="275"/>
       <c r="E29" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="2"/>
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="318"/>
+      <c r="A30" s="320"/>
       <c r="B30" s="28"/>
       <c r="C30" s="275"/>
       <c r="D30" s="275"/>
       <c r="E30" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="2"/>
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="318"/>
+      <c r="A31" s="320"/>
       <c r="B31" s="28"/>
       <c r="C31" s="275"/>
       <c r="D31" s="275"/>
       <c r="E31" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="2"/>
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="318"/>
+      <c r="A32" s="320"/>
       <c r="B32" s="28"/>
       <c r="C32" s="275"/>
       <c r="D32" s="275"/>
       <c r="E32" s="277">
         <f>E31+C32-D32</f>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="2"/>
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="318"/>
+      <c r="A33" s="320"/>
       <c r="B33" s="28"/>
       <c r="C33" s="275"/>
       <c r="D33" s="278"/>
       <c r="E33" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="2"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="318"/>
+      <c r="A34" s="320"/>
       <c r="B34" s="28"/>
       <c r="C34" s="275"/>
       <c r="D34" s="275"/>
       <c r="E34" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="2"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="318"/>
+      <c r="A35" s="320"/>
       <c r="B35" s="28"/>
       <c r="C35" s="275"/>
       <c r="D35" s="275"/>
       <c r="E35" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="2"/>
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="318"/>
+      <c r="A36" s="320"/>
       <c r="B36" s="28"/>
       <c r="C36" s="275"/>
       <c r="D36" s="275"/>
       <c r="E36" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="2"/>
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="318"/>
+      <c r="A37" s="320"/>
       <c r="B37" s="28"/>
       <c r="C37" s="275"/>
       <c r="D37" s="275"/>
       <c r="E37" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="2"/>
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="318"/>
+      <c r="A38" s="320"/>
       <c r="B38" s="28"/>
       <c r="C38" s="275"/>
       <c r="D38" s="275"/>
       <c r="E38" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="2"/>
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="318"/>
+      <c r="A39" s="320"/>
       <c r="B39" s="28"/>
       <c r="C39" s="275"/>
       <c r="D39" s="275"/>
       <c r="E39" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="2"/>
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="318"/>
+      <c r="A40" s="320"/>
       <c r="B40" s="28"/>
       <c r="C40" s="275"/>
       <c r="D40" s="275"/>
       <c r="E40" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="2"/>
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="318"/>
+      <c r="A41" s="320"/>
       <c r="B41" s="28"/>
       <c r="C41" s="275"/>
       <c r="D41" s="275"/>
       <c r="E41" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="2"/>
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="318"/>
+      <c r="A42" s="320"/>
       <c r="B42" s="28"/>
       <c r="C42" s="275"/>
       <c r="D42" s="275"/>
       <c r="E42" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="2"/>
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="318"/>
+      <c r="A43" s="320"/>
       <c r="B43" s="28"/>
       <c r="C43" s="275"/>
       <c r="D43" s="275"/>
       <c r="E43" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="2"/>
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="318"/>
+      <c r="A44" s="320"/>
       <c r="B44" s="28"/>
       <c r="C44" s="275"/>
       <c r="D44" s="275"/>
       <c r="E44" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="2"/>
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="318"/>
+      <c r="A45" s="320"/>
       <c r="B45" s="28"/>
       <c r="C45" s="275"/>
       <c r="D45" s="275"/>
       <c r="E45" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="2"/>
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="318"/>
+      <c r="A46" s="320"/>
       <c r="B46" s="28"/>
       <c r="C46" s="275"/>
       <c r="D46" s="275"/>
       <c r="E46" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="2"/>
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="318"/>
+      <c r="A47" s="320"/>
       <c r="B47" s="28"/>
       <c r="C47" s="275"/>
       <c r="D47" s="275"/>
       <c r="E47" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="2"/>
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="318"/>
+      <c r="A48" s="320"/>
       <c r="B48" s="28"/>
       <c r="C48" s="275"/>
       <c r="D48" s="275"/>
       <c r="E48" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="2"/>
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="318"/>
+      <c r="A49" s="320"/>
       <c r="B49" s="28"/>
       <c r="C49" s="275"/>
       <c r="D49" s="275"/>
       <c r="E49" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="2"/>
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="318"/>
+      <c r="A50" s="320"/>
       <c r="B50" s="28"/>
       <c r="C50" s="275"/>
       <c r="D50" s="275"/>
       <c r="E50" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="2"/>
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="318"/>
+      <c r="A51" s="320"/>
       <c r="B51" s="28"/>
       <c r="C51" s="275"/>
       <c r="D51" s="275"/>
       <c r="E51" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="2"/>
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="318"/>
+      <c r="A52" s="320"/>
       <c r="B52" s="28"/>
       <c r="C52" s="275"/>
       <c r="D52" s="275"/>
       <c r="E52" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="2"/>
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="318"/>
+      <c r="A53" s="320"/>
       <c r="B53" s="28"/>
       <c r="C53" s="275"/>
       <c r="D53" s="275"/>
       <c r="E53" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="2"/>
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="318"/>
+      <c r="A54" s="320"/>
       <c r="B54" s="28"/>
       <c r="C54" s="275"/>
       <c r="D54" s="275"/>
       <c r="E54" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="2"/>
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="318"/>
+      <c r="A55" s="320"/>
       <c r="B55" s="28"/>
       <c r="C55" s="275"/>
       <c r="D55" s="275"/>
       <c r="E55" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="318"/>
+      <c r="A56" s="320"/>
       <c r="B56" s="28"/>
       <c r="C56" s="275"/>
       <c r="D56" s="275"/>
       <c r="E56" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="318"/>
+      <c r="A57" s="320"/>
       <c r="B57" s="28"/>
       <c r="C57" s="275"/>
       <c r="D57" s="275"/>
       <c r="E57" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="318"/>
+      <c r="A58" s="320"/>
       <c r="B58" s="28"/>
       <c r="C58" s="275"/>
       <c r="D58" s="275"/>
       <c r="E58" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="318"/>
+      <c r="A59" s="320"/>
       <c r="B59" s="28"/>
       <c r="C59" s="275"/>
       <c r="D59" s="275"/>
       <c r="E59" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="318"/>
+      <c r="A60" s="320"/>
       <c r="B60" s="28"/>
       <c r="C60" s="275"/>
       <c r="D60" s="275"/>
       <c r="E60" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="318"/>
+      <c r="A61" s="320"/>
       <c r="B61" s="28"/>
       <c r="C61" s="275"/>
       <c r="D61" s="275"/>
       <c r="E61" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="318"/>
+      <c r="A62" s="320"/>
       <c r="B62" s="28"/>
       <c r="C62" s="275"/>
       <c r="D62" s="275"/>
       <c r="E62" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="318"/>
+      <c r="A63" s="320"/>
       <c r="B63" s="28"/>
       <c r="C63" s="275"/>
       <c r="D63" s="275"/>
       <c r="E63" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="318"/>
+      <c r="A64" s="320"/>
       <c r="B64" s="28"/>
       <c r="C64" s="275"/>
       <c r="D64" s="275"/>
       <c r="E64" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="318"/>
+      <c r="A65" s="320"/>
       <c r="B65" s="28"/>
       <c r="C65" s="275"/>
       <c r="D65" s="275"/>
       <c r="E65" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="318"/>
+      <c r="A66" s="320"/>
       <c r="B66" s="28"/>
       <c r="C66" s="275"/>
       <c r="D66" s="275"/>
       <c r="E66" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="318"/>
+      <c r="A67" s="320"/>
       <c r="B67" s="28"/>
       <c r="C67" s="275"/>
       <c r="D67" s="275"/>
       <c r="E67" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="318"/>
+      <c r="A68" s="320"/>
       <c r="B68" s="28"/>
       <c r="C68" s="275"/>
       <c r="D68" s="275"/>
       <c r="E68" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="318"/>
+      <c r="A69" s="320"/>
       <c r="B69" s="28"/>
       <c r="C69" s="275"/>
       <c r="D69" s="275"/>
       <c r="E69" s="277">
         <f t="shared" si="0"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="318"/>
+      <c r="A70" s="320"/>
       <c r="B70" s="28"/>
       <c r="C70" s="275"/>
       <c r="D70" s="275"/>
       <c r="E70" s="277">
         <f t="shared" ref="E70:E82" si="1">E69+C70-D70</f>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="318"/>
+      <c r="A71" s="320"/>
       <c r="B71" s="28"/>
       <c r="C71" s="275"/>
       <c r="D71" s="275"/>
       <c r="E71" s="277">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="318"/>
+      <c r="A72" s="320"/>
       <c r="B72" s="28"/>
       <c r="C72" s="275"/>
       <c r="D72" s="275"/>
       <c r="E72" s="277">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="318"/>
+      <c r="A73" s="320"/>
       <c r="B73" s="28"/>
       <c r="C73" s="275"/>
       <c r="D73" s="275"/>
       <c r="E73" s="277">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="318"/>
+      <c r="A74" s="320"/>
       <c r="B74" s="28"/>
       <c r="C74" s="275"/>
       <c r="D74" s="275"/>
       <c r="E74" s="277">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="318"/>
+      <c r="A75" s="320"/>
       <c r="B75" s="28"/>
       <c r="C75" s="275"/>
       <c r="D75" s="275"/>
       <c r="E75" s="277">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="318"/>
+      <c r="A76" s="320"/>
       <c r="B76" s="28"/>
       <c r="C76" s="275"/>
       <c r="D76" s="275"/>
       <c r="E76" s="277">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="318"/>
+      <c r="A77" s="320"/>
       <c r="B77" s="28"/>
       <c r="C77" s="275"/>
       <c r="D77" s="275"/>
       <c r="E77" s="277">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="318"/>
+      <c r="A78" s="320"/>
       <c r="B78" s="28"/>
       <c r="C78" s="275"/>
       <c r="D78" s="275"/>
       <c r="E78" s="277">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="318"/>
+      <c r="A79" s="320"/>
       <c r="B79" s="28"/>
       <c r="C79" s="275"/>
       <c r="D79" s="275"/>
       <c r="E79" s="277">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F79" s="20"/>
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="318"/>
+      <c r="A80" s="320"/>
       <c r="B80" s="28"/>
       <c r="C80" s="275"/>
       <c r="D80" s="275"/>
       <c r="E80" s="277">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F80" s="20"/>
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="318"/>
+      <c r="A81" s="320"/>
       <c r="B81" s="28"/>
       <c r="C81" s="275"/>
       <c r="D81" s="275"/>
       <c r="E81" s="277">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="318"/>
+      <c r="A82" s="320"/>
       <c r="B82" s="28"/>
       <c r="C82" s="275"/>
       <c r="D82" s="275"/>
       <c r="E82" s="277">
         <f t="shared" si="1"/>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F82" s="20"/>
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="318"/>
+      <c r="A83" s="320"/>
       <c r="B83" s="33"/>
       <c r="C83" s="277">
         <f>SUM(C5:C72)</f>
-        <v>5301038</v>
+        <v>5681038</v>
       </c>
       <c r="D83" s="277">
         <f>SUM(D5:D77)</f>
-        <v>5295000</v>
+        <v>5645000</v>
       </c>
       <c r="E83" s="279">
         <f>E71</f>
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="2"/>
@@ -6246,9 +6298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6262,67 +6314,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
-      <c r="J1" s="319"/>
-      <c r="K1" s="319"/>
-      <c r="L1" s="319"/>
-      <c r="M1" s="319"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="319"/>
-      <c r="P1" s="319"/>
-      <c r="Q1" s="319"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="325"/>
+      <c r="Q1" s="325"/>
     </row>
     <row r="2" spans="1:24" s="74" customFormat="1" ht="18">
-      <c r="A2" s="320" t="s">
+      <c r="A2" s="326" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="320"/>
-      <c r="H2" s="320"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="320"/>
-      <c r="K2" s="320"/>
-      <c r="L2" s="320"/>
-      <c r="M2" s="320"/>
-      <c r="N2" s="320"/>
-      <c r="O2" s="320"/>
-      <c r="P2" s="320"/>
-      <c r="Q2" s="320"/>
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="326"/>
+      <c r="G2" s="326"/>
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="326"/>
+      <c r="N2" s="326"/>
+      <c r="O2" s="326"/>
+      <c r="P2" s="326"/>
+      <c r="Q2" s="326"/>
     </row>
     <row r="3" spans="1:24" s="75" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="321" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="322"/>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="322"/>
-      <c r="H3" s="322"/>
-      <c r="I3" s="322"/>
-      <c r="J3" s="322"/>
-      <c r="K3" s="322"/>
-      <c r="L3" s="322"/>
-      <c r="M3" s="322"/>
-      <c r="N3" s="322"/>
-      <c r="O3" s="322"/>
-      <c r="P3" s="322"/>
-      <c r="Q3" s="323"/>
+      <c r="A3" s="327" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="328"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
+      <c r="M3" s="328"/>
+      <c r="N3" s="328"/>
+      <c r="O3" s="328"/>
+      <c r="P3" s="328"/>
+      <c r="Q3" s="329"/>
       <c r="S3" s="58"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6331,52 +6383,52 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="76" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="324" t="s">
+      <c r="A4" s="330" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="326" t="s">
+      <c r="B4" s="332" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="328" t="s">
+      <c r="C4" s="321" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="328" t="s">
+      <c r="D4" s="321" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="328" t="s">
+      <c r="E4" s="321" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="328" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="328" t="s">
+      <c r="F4" s="321" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="321" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="328" t="s">
+      <c r="H4" s="321" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="321" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="328" t="s">
-        <v>190</v>
-      </c>
-      <c r="J4" s="328" t="s">
+      <c r="J4" s="321" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="328" t="s">
+      <c r="K4" s="321" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="328" t="s">
+      <c r="L4" s="321" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="328" t="s">
+      <c r="M4" s="321" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="328" t="s">
+      <c r="N4" s="321" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="332" t="s">
+      <c r="O4" s="323" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="330" t="s">
+      <c r="P4" s="334" t="s">
         <v>73</v>
       </c>
       <c r="Q4" s="137" t="s">
@@ -6389,22 +6441,22 @@
       <c r="W4" s="78"/>
     </row>
     <row r="5" spans="1:24" s="76" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="325"/>
-      <c r="B5" s="327"/>
-      <c r="C5" s="329"/>
-      <c r="D5" s="329"/>
-      <c r="E5" s="329"/>
-      <c r="F5" s="329"/>
-      <c r="G5" s="329"/>
-      <c r="H5" s="329"/>
-      <c r="I5" s="329"/>
-      <c r="J5" s="329"/>
-      <c r="K5" s="329"/>
-      <c r="L5" s="329"/>
-      <c r="M5" s="329"/>
-      <c r="N5" s="329"/>
-      <c r="O5" s="333"/>
-      <c r="P5" s="331"/>
+      <c r="A5" s="331"/>
+      <c r="B5" s="333"/>
+      <c r="C5" s="322"/>
+      <c r="D5" s="322"/>
+      <c r="E5" s="322"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="322"/>
+      <c r="I5" s="322"/>
+      <c r="J5" s="322"/>
+      <c r="K5" s="322"/>
+      <c r="L5" s="322"/>
+      <c r="M5" s="322"/>
+      <c r="N5" s="322"/>
+      <c r="O5" s="324"/>
+      <c r="P5" s="335"/>
       <c r="Q5" s="138" t="s">
         <v>48</v>
       </c>
@@ -6417,7 +6469,7 @@
     </row>
     <row r="6" spans="1:24" s="14" customFormat="1">
       <c r="A6" s="83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="84">
         <v>1000</v>
@@ -6457,7 +6509,7 @@
     </row>
     <row r="7" spans="1:24" s="14" customFormat="1">
       <c r="A7" s="83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" s="84">
         <v>500</v>
@@ -6501,7 +6553,7 @@
     </row>
     <row r="8" spans="1:24" s="14" customFormat="1">
       <c r="A8" s="83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="91">
         <v>1450</v>
@@ -6545,7 +6597,7 @@
     </row>
     <row r="9" spans="1:24" s="14" customFormat="1">
       <c r="A9" s="83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="91">
         <v>1000</v>
@@ -6591,7 +6643,7 @@
     </row>
     <row r="10" spans="1:24" s="14" customFormat="1">
       <c r="A10" s="83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10" s="91">
         <v>500</v>
@@ -6631,7 +6683,7 @@
     </row>
     <row r="11" spans="1:24" s="14" customFormat="1">
       <c r="A11" s="83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" s="91">
         <v>1350</v>
@@ -6675,7 +6727,7 @@
     </row>
     <row r="12" spans="1:24" s="14" customFormat="1">
       <c r="A12" s="83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="91">
         <v>500</v>
@@ -6717,7 +6769,7 @@
     </row>
     <row r="13" spans="1:24" s="14" customFormat="1">
       <c r="A13" s="83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="91">
         <v>1200</v>
@@ -6763,7 +6815,7 @@
     </row>
     <row r="14" spans="1:24" s="14" customFormat="1">
       <c r="A14" s="83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B14" s="91">
         <v>550</v>
@@ -6805,7 +6857,7 @@
     </row>
     <row r="15" spans="1:24" s="14" customFormat="1">
       <c r="A15" s="83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15" s="91">
         <v>900</v>
@@ -6843,7 +6895,7 @@
     </row>
     <row r="16" spans="1:24" s="14" customFormat="1">
       <c r="A16" s="83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B16" s="91">
         <v>1000</v>
@@ -6885,7 +6937,7 @@
     </row>
     <row r="17" spans="1:23" s="14" customFormat="1">
       <c r="A17" s="83" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B17" s="91">
         <v>550</v>
@@ -6927,7 +6979,7 @@
     </row>
     <row r="18" spans="1:23" s="14" customFormat="1">
       <c r="A18" s="83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B18" s="91">
         <v>1000</v>
@@ -6969,7 +7021,7 @@
     </row>
     <row r="19" spans="1:23" s="14" customFormat="1">
       <c r="A19" s="83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" s="91">
         <v>1300</v>
@@ -7013,7 +7065,7 @@
     </row>
     <row r="20" spans="1:23" s="14" customFormat="1">
       <c r="A20" s="83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20" s="91">
         <v>550</v>
@@ -7051,7 +7103,7 @@
     </row>
     <row r="21" spans="1:23" s="14" customFormat="1">
       <c r="A21" s="83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" s="91">
         <v>1400</v>
@@ -7084,25 +7136,41 @@
       <c r="S21" s="7"/>
     </row>
     <row r="22" spans="1:23" s="14" customFormat="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="91"/>
+      <c r="A22" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="91">
+        <v>500</v>
+      </c>
       <c r="C22" s="84"/>
       <c r="D22" s="92"/>
       <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="F22" s="92">
+        <v>300</v>
+      </c>
+      <c r="G22" s="92">
+        <v>120</v>
+      </c>
       <c r="H22" s="92"/>
       <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
+      <c r="J22" s="92">
+        <v>50</v>
+      </c>
+      <c r="K22" s="92">
+        <v>480</v>
+      </c>
       <c r="L22" s="92"/>
       <c r="M22" s="92"/>
-      <c r="N22" s="123"/>
+      <c r="N22" s="123">
+        <v>20</v>
+      </c>
       <c r="O22" s="92"/>
-      <c r="P22" s="94"/>
+      <c r="P22" s="94">
+        <v>520</v>
+      </c>
       <c r="Q22" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1990</v>
       </c>
       <c r="R22" s="89"/>
       <c r="S22" s="7"/>
@@ -7453,7 +7521,7 @@
       </c>
       <c r="B37" s="109">
         <f>SUM(B6:B36)</f>
-        <v>14750</v>
+        <v>15250</v>
       </c>
       <c r="C37" s="110">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
@@ -7469,11 +7537,11 @@
       </c>
       <c r="F37" s="110">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G37" s="110">
         <f>SUM(G6:G36)</f>
-        <v>3960</v>
+        <v>4080</v>
       </c>
       <c r="H37" s="110">
         <f t="shared" si="1"/>
@@ -7485,11 +7553,11 @@
       </c>
       <c r="J37" s="110">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="K37" s="110">
         <f t="shared" si="1"/>
-        <v>7710</v>
+        <v>8190</v>
       </c>
       <c r="L37" s="110">
         <f t="shared" si="1"/>
@@ -7501,7 +7569,7 @@
       </c>
       <c r="N37" s="126">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="O37" s="110">
         <f t="shared" si="1"/>
@@ -7509,11 +7577,11 @@
       </c>
       <c r="P37" s="111">
         <f t="shared" si="1"/>
-        <v>1010</v>
+        <v>1530</v>
       </c>
       <c r="Q37" s="112">
         <f>SUM(Q6:Q36)</f>
-        <v>37571</v>
+        <v>39561</v>
       </c>
       <c r="S37" s="243" t="s">
         <v>55</v>
@@ -7580,7 +7648,7 @@
     </row>
     <row r="44" spans="1:19" s="291" customFormat="1">
       <c r="A44" s="291" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -9517,6 +9585,10 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9532,10 +9604,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9549,7 +9617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
@@ -9577,14 +9645,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="340" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="339"/>
-      <c r="C1" s="339"/>
-      <c r="D1" s="339"/>
-      <c r="E1" s="339"/>
-      <c r="F1" s="340"/>
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="342"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="154"/>
@@ -9678,14 +9746,14 @@
       <c r="CS1" s="149"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="341" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="342"/>
-      <c r="C2" s="342"/>
-      <c r="D2" s="342"/>
-      <c r="E2" s="342"/>
-      <c r="F2" s="343"/>
+      <c r="A2" s="343" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="344"/>
+      <c r="C2" s="344"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="344"/>
+      <c r="F2" s="345"/>
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
       <c r="I2" s="154"/>
@@ -9779,14 +9847,14 @@
       <c r="CS2" s="149"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="344" t="s">
+      <c r="A3" s="346" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="345"/>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="345"/>
-      <c r="F3" s="346"/>
+      <c r="B3" s="347"/>
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="348"/>
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
       <c r="I3" s="154"/>
@@ -9899,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="280" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H4" s="69"/>
       <c r="I4" s="154"/>
@@ -9994,7 +10062,7 @@
     </row>
     <row r="5" spans="1:97">
       <c r="A5" s="193" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="56">
         <v>299550</v>
@@ -10106,7 +10174,7 @@
     </row>
     <row r="6" spans="1:97">
       <c r="A6" s="194" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="57">
         <v>330240</v>
@@ -10218,7 +10286,7 @@
     </row>
     <row r="7" spans="1:97">
       <c r="A7" s="194" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="57">
         <v>658670</v>
@@ -10330,7 +10398,7 @@
     </row>
     <row r="8" spans="1:97">
       <c r="A8" s="194" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="57">
         <v>221750</v>
@@ -10442,7 +10510,7 @@
     </row>
     <row r="9" spans="1:97">
       <c r="A9" s="194" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="57">
         <v>413530</v>
@@ -10554,7 +10622,7 @@
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="194" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="57">
         <v>286370</v>
@@ -10666,7 +10734,7 @@
     </row>
     <row r="11" spans="1:97">
       <c r="A11" s="194" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B11" s="57">
         <v>655560</v>
@@ -10778,7 +10846,7 @@
     </row>
     <row r="12" spans="1:97">
       <c r="A12" s="194" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" s="57">
         <v>415190</v>
@@ -10890,7 +10958,7 @@
     </row>
     <row r="13" spans="1:97">
       <c r="A13" s="194" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="57">
         <v>378010</v>
@@ -11002,7 +11070,7 @@
     </row>
     <row r="14" spans="1:97">
       <c r="A14" s="194" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="57">
         <v>388440</v>
@@ -11114,7 +11182,7 @@
     </row>
     <row r="15" spans="1:97">
       <c r="A15" s="194" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B15" s="57">
         <v>316340</v>
@@ -11226,7 +11294,7 @@
     </row>
     <row r="16" spans="1:97">
       <c r="A16" s="194" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16" s="57">
         <v>464780</v>
@@ -11338,7 +11406,7 @@
     </row>
     <row r="17" spans="1:97">
       <c r="A17" s="194" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B17" s="57">
         <v>266110</v>
@@ -11450,7 +11518,7 @@
     </row>
     <row r="18" spans="1:97">
       <c r="A18" s="194" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" s="57">
         <v>268960</v>
@@ -11562,7 +11630,7 @@
     </row>
     <row r="19" spans="1:97">
       <c r="A19" s="194" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="57">
         <v>257650</v>
@@ -11674,7 +11742,7 @@
     </row>
     <row r="20" spans="1:97">
       <c r="A20" s="194" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B20" s="57">
         <v>521880</v>
@@ -11785,16 +11853,26 @@
       <c r="CS20" s="149"/>
     </row>
     <row r="21" spans="1:97">
-      <c r="A21" s="194"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="57"/>
+      <c r="A21" s="194" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="57">
+        <v>529390</v>
+      </c>
+      <c r="C21" s="60">
+        <v>511970</v>
+      </c>
+      <c r="D21" s="57">
+        <v>1990</v>
+      </c>
       <c r="E21" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>513960</v>
       </c>
       <c r="F21" s="245"/>
-      <c r="G21" s="259"/>
+      <c r="G21" s="259">
+        <v>1450</v>
+      </c>
       <c r="H21" s="154"/>
       <c r="I21" s="159"/>
       <c r="J21" s="159"/>
@@ -13014,23 +13092,23 @@
       </c>
       <c r="B33" s="282">
         <f>SUM(B5:B32)</f>
-        <v>6143030</v>
+        <v>6672420</v>
       </c>
       <c r="C33" s="283">
         <f>SUM(C5:C32)</f>
-        <v>6004311</v>
+        <v>6516281</v>
       </c>
       <c r="D33" s="282">
         <f>SUM(D5:D32)</f>
-        <v>35245</v>
+        <v>37235</v>
       </c>
       <c r="E33" s="282">
         <f>SUM(E5:E32)</f>
-        <v>6039556</v>
+        <v>6553516</v>
       </c>
       <c r="F33" s="282">
         <f>B33-E33</f>
-        <v>103474</v>
+        <v>118904</v>
       </c>
       <c r="G33" s="284"/>
       <c r="H33" s="150"/>
@@ -13225,12 +13303,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="144"/>
-      <c r="B35" s="336" t="s">
+      <c r="B35" s="338" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="336"/>
-      <c r="D35" s="336"/>
-      <c r="E35" s="336"/>
+      <c r="C35" s="338"/>
+      <c r="D35" s="338"/>
+      <c r="E35" s="338"/>
       <c r="F35" s="145"/>
       <c r="G35" s="150"/>
       <c r="H35" s="150"/>
@@ -13550,16 +13628,16 @@
         <v>116</v>
       </c>
       <c r="B38" s="128" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C38" s="127" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D38" s="220">
         <v>6000</v>
       </c>
       <c r="E38" s="187" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F38" s="143"/>
       <c r="G38" s="150"/>
@@ -13659,16 +13737,16 @@
         <v>116</v>
       </c>
       <c r="B39" s="128" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C39" s="127" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D39" s="220">
         <v>1750</v>
       </c>
       <c r="E39" s="187" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F39" s="143"/>
       <c r="G39" s="150"/>
@@ -13768,16 +13846,16 @@
         <v>116</v>
       </c>
       <c r="B40" s="66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40" s="292" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D40" s="220">
         <v>4170</v>
       </c>
       <c r="E40" s="187" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F40" s="143"/>
       <c r="G40" s="156"/>
@@ -13877,7 +13955,7 @@
         <v>116</v>
       </c>
       <c r="B41" s="128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41" s="127" t="s">
         <v>134</v>
@@ -13886,7 +13964,7 @@
         <v>3360</v>
       </c>
       <c r="E41" s="187" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F41" s="148"/>
       <c r="G41" s="157" t="s">
@@ -13988,16 +14066,16 @@
         <v>116</v>
       </c>
       <c r="B42" s="66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C42" s="127" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D42" s="220">
         <v>1000</v>
       </c>
       <c r="E42" s="188" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F42" s="149"/>
       <c r="G42" s="158" t="s">
@@ -14099,10 +14177,10 @@
         <v>116</v>
       </c>
       <c r="B43" s="128" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C43" s="127" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D43" s="220">
         <v>1000</v>
@@ -14111,10 +14189,10 @@
         <v>13</v>
       </c>
       <c r="F43" s="145"/>
-      <c r="G43" s="337"/>
-      <c r="H43" s="337"/>
-      <c r="I43" s="337"/>
-      <c r="J43" s="337"/>
+      <c r="G43" s="339"/>
+      <c r="H43" s="339"/>
+      <c r="I43" s="339"/>
+      <c r="J43" s="339"/>
       <c r="K43" s="69"/>
       <c r="L43" s="154"/>
       <c r="M43" s="69"/>
@@ -14434,10 +14512,10 @@
       </c>
       <c r="C46" s="139"/>
       <c r="D46" s="222">
-        <v>469740</v>
+        <v>449740</v>
       </c>
       <c r="E46" s="309" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F46" s="142"/>
       <c r="G46" s="149"/>
@@ -14451,7 +14529,7 @@
         <v>387330</v>
       </c>
       <c r="K46" s="139" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L46" s="206">
         <v>387330</v>
@@ -14557,7 +14635,7 @@
         <v>200000</v>
       </c>
       <c r="E47" s="189" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F47" s="143"/>
       <c r="G47" s="149"/>
@@ -14571,7 +14649,7 @@
         <v>29856</v>
       </c>
       <c r="K47" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L47" s="140">
         <v>29856</v>
@@ -14670,14 +14748,14 @@
         <v>123</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C48" s="127"/>
       <c r="D48" s="223">
         <v>200000</v>
       </c>
       <c r="E48" s="191" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F48" s="143"/>
       <c r="G48" s="149"/>
@@ -14691,7 +14769,7 @@
         <v>168306</v>
       </c>
       <c r="K48" s="182" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L48" s="140">
         <v>168306</v>
@@ -14790,14 +14868,14 @@
         <v>123</v>
       </c>
       <c r="B49" s="129" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C49" s="127"/>
       <c r="D49" s="223">
         <v>150000</v>
       </c>
       <c r="E49" s="189" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F49" s="143"/>
       <c r="G49" s="149"/>
@@ -14811,7 +14889,7 @@
         <v>206500</v>
       </c>
       <c r="K49" s="182" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L49" s="140">
         <v>206500</v>
@@ -14917,7 +14995,7 @@
         <v>150000</v>
       </c>
       <c r="E50" s="189" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F50" s="143"/>
       <c r="G50" s="149"/>
@@ -14931,7 +15009,7 @@
         <v>228825</v>
       </c>
       <c r="K50" s="181" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L50" s="140">
         <v>228825</v>
@@ -15030,14 +15108,14 @@
         <v>123</v>
       </c>
       <c r="B51" s="61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C51" s="127"/>
       <c r="D51" s="223">
         <v>69960</v>
       </c>
       <c r="E51" s="191" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F51" s="143"/>
       <c r="G51" s="149"/>
@@ -15051,7 +15129,7 @@
         <v>71530</v>
       </c>
       <c r="K51" s="182" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L51" s="140">
         <v>71530</v>
@@ -15150,14 +15228,14 @@
         <v>123</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C52" s="127"/>
       <c r="D52" s="223">
         <v>29590</v>
       </c>
       <c r="E52" s="190" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F52" s="143"/>
       <c r="G52" s="149"/>
@@ -15260,14 +15338,14 @@
         <v>123</v>
       </c>
       <c r="B53" s="61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C53" s="127"/>
       <c r="D53" s="223">
         <v>30000</v>
       </c>
       <c r="E53" s="191" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F53" s="143"/>
       <c r="G53" s="149"/>
@@ -15281,7 +15359,7 @@
         <v>33000</v>
       </c>
       <c r="K53" s="182" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L53" s="140">
         <v>33000</v>
@@ -15384,10 +15462,10 @@
       </c>
       <c r="C54" s="127"/>
       <c r="D54" s="223">
-        <v>89750</v>
+        <v>80790</v>
       </c>
       <c r="E54" s="189" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F54" s="143"/>
       <c r="G54" s="149"/>
@@ -15401,7 +15479,7 @@
         <v>182359</v>
       </c>
       <c r="K54" s="182" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L54" s="140">
         <v>182359</v>
@@ -15717,7 +15795,7 @@
         <v>13000</v>
       </c>
       <c r="K57" s="182" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L57" s="140">
         <v>13000</v>
@@ -15829,7 +15907,7 @@
         <v>2000</v>
       </c>
       <c r="K58" s="182" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L58" s="140">
         <v>2000</v>
@@ -15937,7 +16015,7 @@
         <v>7000</v>
       </c>
       <c r="E59" s="191" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F59" s="143"/>
       <c r="G59" s="149"/>
@@ -15951,7 +16029,7 @@
         <v>22000</v>
       </c>
       <c r="K59" s="182" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L59" s="140">
         <v>22000</v>
@@ -16303,7 +16381,7 @@
         <v>129590</v>
       </c>
       <c r="E62" s="189" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F62" s="142"/>
       <c r="G62" s="149"/>
@@ -16317,7 +16395,7 @@
         <v>129590</v>
       </c>
       <c r="K62" s="183" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L62" s="140">
         <v>129590</v>
@@ -16833,7 +16911,7 @@
         <v>84750</v>
       </c>
       <c r="E67" s="190" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F67" s="143"/>
       <c r="G67" s="149"/>
@@ -16847,7 +16925,7 @@
         <v>85740</v>
       </c>
       <c r="K67" s="182" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L67" s="140">
         <v>85740</v>
@@ -17077,7 +17155,7 @@
         <v>20000</v>
       </c>
       <c r="E69" s="189" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F69" s="69"/>
       <c r="G69" s="149"/>
@@ -17091,7 +17169,7 @@
         <v>16000</v>
       </c>
       <c r="K69" s="127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L69" s="140">
         <v>16000</v>
@@ -17199,7 +17277,7 @@
         <v>11000</v>
       </c>
       <c r="E70" s="190" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F70" s="143"/>
       <c r="G70" s="149"/>
@@ -17213,7 +17291,7 @@
         <v>29460</v>
       </c>
       <c r="K70" s="181" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L70" s="140">
         <v>29460</v>
@@ -17321,7 +17399,7 @@
         <v>19460</v>
       </c>
       <c r="E71" s="190" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F71" s="145"/>
       <c r="G71" s="149"/>
@@ -17335,7 +17413,7 @@
         <v>33000</v>
       </c>
       <c r="K71" s="127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L71" s="140">
         <v>33000</v>
@@ -17443,7 +17521,7 @@
         <v>19370</v>
       </c>
       <c r="E72" s="191" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F72" s="145"/>
       <c r="G72" s="149"/>
@@ -17457,7 +17535,7 @@
         <v>19370</v>
       </c>
       <c r="K72" s="181" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L72" s="140">
         <v>19370</v>
@@ -17685,7 +17763,7 @@
         <v>20000</v>
       </c>
       <c r="E74" s="190" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F74" s="145"/>
       <c r="G74" s="149"/>
@@ -18104,14 +18182,14 @@
         <v>117</v>
       </c>
       <c r="B78" s="62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C78" s="127"/>
       <c r="D78" s="223">
         <v>21280</v>
       </c>
       <c r="E78" s="189" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F78" s="143"/>
       <c r="G78" s="149"/>
@@ -18221,22 +18299,22 @@
     </row>
     <row r="79" spans="1:97">
       <c r="A79" s="240" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" s="62" t="s">
         <v>204</v>
-      </c>
-      <c r="B79" s="62" t="s">
-        <v>205</v>
       </c>
       <c r="C79" s="127"/>
       <c r="D79" s="223">
         <v>6880</v>
       </c>
       <c r="E79" s="190" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F79" s="143"/>
       <c r="G79" s="149"/>
       <c r="H79" s="199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I79" s="64">
         <v>1758900692</v>
@@ -18353,7 +18431,7 @@
         <v>7000</v>
       </c>
       <c r="E80" s="190" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F80" s="143" t="s">
         <v>13</v>
@@ -18458,14 +18536,14 @@
         <v>113</v>
       </c>
       <c r="B81" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C81" s="127"/>
       <c r="D81" s="223">
         <v>27180</v>
       </c>
       <c r="E81" s="190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F81" s="143"/>
       <c r="G81" s="149"/>
@@ -18578,28 +18656,28 @@
         <v>113</v>
       </c>
       <c r="B82" s="62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C82" s="127"/>
       <c r="D82" s="223">
         <v>3000</v>
       </c>
       <c r="E82" s="190" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F82" s="145"/>
       <c r="G82" s="149"/>
       <c r="H82" s="199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I82" s="64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J82" s="60">
         <v>14040</v>
       </c>
       <c r="K82" s="182" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L82" s="140">
         <v>14040</v>
@@ -18695,17 +18773,17 @@
     </row>
     <row r="83" spans="1:97">
       <c r="A83" s="240" t="s">
+        <v>213</v>
+      </c>
+      <c r="B83" s="62" t="s">
         <v>214</v>
-      </c>
-      <c r="B83" s="62" t="s">
-        <v>215</v>
       </c>
       <c r="C83" s="127"/>
       <c r="D83" s="223">
         <v>1060</v>
       </c>
       <c r="E83" s="191" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F83" s="145"/>
       <c r="G83" s="149"/>
@@ -18713,13 +18791,13 @@
         <v>137</v>
       </c>
       <c r="I83" s="64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J83" s="60">
         <v>15000</v>
       </c>
       <c r="K83" s="182" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L83" s="140">
         <v>15000</v>
@@ -18815,7 +18893,7 @@
     </row>
     <row r="84" spans="1:97">
       <c r="A84" s="240" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B84" s="62" t="s">
         <v>137</v>
@@ -18825,21 +18903,21 @@
         <v>7000</v>
       </c>
       <c r="E84" s="189" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F84" s="145"/>
       <c r="G84" s="149"/>
       <c r="H84" s="199" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I84" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J84" s="60">
         <v>20000</v>
       </c>
       <c r="K84" s="182" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L84" s="140">
         <v>20000</v>
@@ -18935,29 +19013,29 @@
     </row>
     <row r="85" spans="1:97">
       <c r="A85" s="240" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" s="62" t="s">
         <v>198</v>
-      </c>
-      <c r="B85" s="62" t="s">
-        <v>199</v>
       </c>
       <c r="C85" s="127"/>
       <c r="D85" s="223">
         <v>40000</v>
       </c>
       <c r="E85" s="189" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F85" s="145"/>
       <c r="G85" s="149"/>
       <c r="H85" s="199" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I85" s="64"/>
       <c r="J85" s="60">
         <v>2000</v>
       </c>
       <c r="K85" s="182" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L85" s="140">
         <v>2000</v>
@@ -19053,29 +19131,29 @@
     </row>
     <row r="86" spans="1:97">
       <c r="A86" s="240" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B86" s="128" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C86" s="127"/>
       <c r="D86" s="223">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E86" s="190" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="F86" s="145"/>
       <c r="G86" s="149"/>
       <c r="H86" s="199" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I86" s="64"/>
       <c r="J86" s="60">
         <v>10000</v>
       </c>
       <c r="K86" s="182" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L86" s="140">
         <v>10000</v>
@@ -19171,29 +19249,29 @@
     </row>
     <row r="87" spans="1:97">
       <c r="A87" s="240" t="s">
+        <v>218</v>
+      </c>
+      <c r="B87" s="62" t="s">
         <v>219</v>
-      </c>
-      <c r="B87" s="62" t="s">
-        <v>220</v>
       </c>
       <c r="C87" s="127"/>
       <c r="D87" s="223">
         <v>7240</v>
       </c>
       <c r="E87" s="190" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F87" s="143"/>
       <c r="G87" s="149"/>
       <c r="H87" s="199" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I87" s="64"/>
       <c r="J87" s="60">
         <v>7900</v>
       </c>
       <c r="K87" s="182" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L87" s="140">
         <v>7900</v>
@@ -19289,29 +19367,29 @@
     </row>
     <row r="88" spans="1:97">
       <c r="A88" s="240" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B88" s="62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C88" s="127"/>
       <c r="D88" s="223">
         <v>8000</v>
       </c>
       <c r="E88" s="191" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F88" s="143"/>
       <c r="G88" s="149"/>
       <c r="H88" s="199" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I88" s="64"/>
       <c r="J88" s="60">
         <v>2120</v>
       </c>
       <c r="K88" s="182" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L88" s="140">
         <v>2120</v>
@@ -19407,17 +19485,17 @@
     </row>
     <row r="89" spans="1:97">
       <c r="A89" s="240" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B89" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C89" s="127"/>
       <c r="D89" s="223">
         <v>1900</v>
       </c>
       <c r="E89" s="191" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F89" s="143"/>
       <c r="G89" s="149"/>
@@ -19530,14 +19608,14 @@
         <v>117</v>
       </c>
       <c r="B90" s="62" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C90" s="127"/>
       <c r="D90" s="223">
         <v>8610</v>
       </c>
       <c r="E90" s="190" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F90" s="143"/>
       <c r="G90" s="149"/>
@@ -19551,7 +19629,7 @@
         <v>3500</v>
       </c>
       <c r="K90" s="182" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L90" s="140">
         <v>3500</v>
@@ -19647,17 +19725,17 @@
     </row>
     <row r="91" spans="1:97">
       <c r="A91" s="239" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B91" s="62" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C91" s="127"/>
       <c r="D91" s="223">
         <v>4130</v>
       </c>
       <c r="E91" s="191" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F91" s="143"/>
       <c r="G91" s="149"/>
@@ -19766,11 +19844,19 @@
       <c r="CS91" s="149"/>
     </row>
     <row r="92" spans="1:97">
-      <c r="A92" s="240"/>
-      <c r="B92" s="62"/>
+      <c r="A92" s="240" t="s">
+        <v>243</v>
+      </c>
+      <c r="B92" s="62" t="s">
+        <v>244</v>
+      </c>
       <c r="C92" s="127"/>
-      <c r="D92" s="223"/>
-      <c r="E92" s="190"/>
+      <c r="D92" s="223">
+        <v>24910</v>
+      </c>
+      <c r="E92" s="190" t="s">
+        <v>240</v>
+      </c>
       <c r="F92" s="149"/>
       <c r="G92" s="149"/>
       <c r="H92" s="199" t="s">
@@ -19878,15 +19964,23 @@
       <c r="CS92" s="149"/>
     </row>
     <row r="93" spans="1:97">
-      <c r="A93" s="240"/>
-      <c r="B93" s="62"/>
+      <c r="A93" s="240" t="s">
+        <v>243</v>
+      </c>
+      <c r="B93" s="62" t="s">
+        <v>245</v>
+      </c>
       <c r="C93" s="127"/>
-      <c r="D93" s="223"/>
-      <c r="E93" s="189"/>
+      <c r="D93" s="223">
+        <v>4480</v>
+      </c>
+      <c r="E93" s="189" t="s">
+        <v>240</v>
+      </c>
       <c r="F93" s="149"/>
       <c r="G93" s="149"/>
       <c r="H93" s="199" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I93" s="64" t="s">
         <v>134</v>
@@ -19895,7 +19989,7 @@
         <v>3360</v>
       </c>
       <c r="K93" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L93" s="140">
         <v>3360</v>
@@ -21726,11 +21820,19 @@
       <c r="CS110" s="149"/>
     </row>
     <row r="111" spans="1:97">
-      <c r="A111" s="240"/>
-      <c r="B111" s="62"/>
+      <c r="A111" s="240" t="s">
+        <v>246</v>
+      </c>
+      <c r="B111" s="62" t="s">
+        <v>247</v>
+      </c>
       <c r="C111" s="127"/>
-      <c r="D111" s="223"/>
-      <c r="E111" s="191"/>
+      <c r="D111" s="223">
+        <v>5000</v>
+      </c>
+      <c r="E111" s="191" t="s">
+        <v>240</v>
+      </c>
       <c r="F111" s="149"/>
       <c r="G111" s="149"/>
       <c r="H111" s="199"/>
@@ -21941,7 +22043,7 @@
     </row>
     <row r="113" spans="1:97">
       <c r="A113" s="240" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B113" s="62" t="s">
         <v>33</v>
@@ -22056,7 +22158,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C114" s="127">
         <v>1758900692</v>
@@ -22168,14 +22270,14 @@
         <v>116</v>
       </c>
       <c r="B115" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C115" s="127"/>
       <c r="D115" s="223">
         <v>5490</v>
       </c>
       <c r="E115" s="191" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F115" s="149"/>
       <c r="G115" s="149"/>
@@ -22590,14 +22692,14 @@
       <c r="CS118" s="149"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="334" t="s">
+      <c r="A119" s="336" t="s">
         <v>34</v>
       </c>
-      <c r="B119" s="335"/>
-      <c r="C119" s="347"/>
+      <c r="B119" s="337"/>
+      <c r="C119" s="349"/>
       <c r="D119" s="226">
         <f>SUM(D37:D118)</f>
-        <v>1994475</v>
+        <v>2009905</v>
       </c>
       <c r="E119" s="218"/>
       <c r="F119" s="149"/>
@@ -22797,14 +22899,14 @@
       <c r="CS120" s="149"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="334" t="s">
+      <c r="A121" s="336" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="335"/>
-      <c r="C121" s="335"/>
+      <c r="B121" s="337"/>
+      <c r="C121" s="337"/>
       <c r="D121" s="226">
         <f>D119+M121</f>
-        <v>1994475</v>
+        <v>2009905</v>
       </c>
       <c r="E121" s="218"/>
       <c r="F121" s="149"/>
@@ -34036,8 +34138,8 @@
   </sheetPr>
   <dimension ref="A1:AC219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34056,35 +34158,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="348" t="s">
+      <c r="A1" s="350" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="350"/>
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="352"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="357" t="s">
+      <c r="A2" s="359" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="359"/>
+      <c r="B2" s="360"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="361"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="351" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" s="352"/>
-      <c r="C3" s="352"/>
-      <c r="D3" s="352"/>
-      <c r="E3" s="353"/>
+      <c r="A3" s="353" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="354"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="355"/>
       <c r="F3" s="5"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -34111,15 +34213,15 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="23.25">
-      <c r="A4" s="360" t="s">
+      <c r="A4" s="362" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="361"/>
+      <c r="B4" s="363"/>
       <c r="C4" s="295"/>
-      <c r="D4" s="362" t="s">
+      <c r="D4" s="364" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="363"/>
+      <c r="E4" s="365"/>
       <c r="F4" s="5"/>
       <c r="G4" s="50"/>
       <c r="H4" s="6"/>
@@ -34157,7 +34259,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="263">
-        <v>5390407.2638714304</v>
+        <v>5026162.7084714305</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="286"/>
@@ -34189,14 +34291,14 @@
         <v>6</v>
       </c>
       <c r="B6" s="267">
-        <v>163435.70090952388</v>
+        <v>177679.56300952387</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="263">
-        <v>6038</v>
+        <v>36038</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="289"/>
@@ -34233,7 +34335,7 @@
         <v>71</v>
       </c>
       <c r="E7" s="263">
-        <v>460386.43703809381</v>
+        <v>489617.85453809332</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="289"/>
@@ -34303,7 +34405,7 @@
         <v>74082</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -34331,14 +34433,14 @@
         <v>14</v>
       </c>
       <c r="B10" s="267">
-        <v>37571</v>
+        <v>39561</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="43" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="263">
-        <v>1994475</v>
+        <v>2009905</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="251"/>
@@ -34346,7 +34448,7 @@
         <v>66256</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -34381,7 +34483,7 @@
         <v>72</v>
       </c>
       <c r="E11" s="263">
-        <v>107760</v>
+        <v>109210</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="251"/>
@@ -34419,14 +34521,14 @@
       </c>
       <c r="B12" s="268">
         <f>B6+B7+B8-B10-B11</f>
-        <v>125864.70090952388</v>
+        <v>138118.56300952387</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E12" s="265">
-        <v>166798</v>
+        <v>467185</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>55</v>
@@ -34528,7 +34630,7 @@
       </c>
       <c r="B15" s="269">
         <f>B5+B6+B7+B8-B10-B11-B14</f>
-        <v>8125864.7009095242</v>
+        <v>8138118.5630095238</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44" t="s">
@@ -34536,7 +34638,7 @@
       </c>
       <c r="E15" s="266">
         <f>E5+E6+E7+E10+E11+E12</f>
-        <v>8125864.7009095242</v>
+        <v>8138118.5630095238</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="121">
@@ -34604,13 +34706,13 @@
       <c r="AC16" s="8"/>
     </row>
     <row r="17" spans="1:29" ht="22.5">
-      <c r="A17" s="354" t="s">
+      <c r="A17" s="356" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="355"/>
-      <c r="C17" s="355"/>
-      <c r="D17" s="355"/>
-      <c r="E17" s="356"/>
+      <c r="B17" s="357"/>
+      <c r="C17" s="357"/>
+      <c r="D17" s="357"/>
+      <c r="E17" s="358"/>
       <c r="F17" s="5"/>
       <c r="G17" s="9"/>
       <c r="H17" s="17"/>
@@ -34686,7 +34788,7 @@
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="304" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E19" s="305">
         <v>200000</v>
@@ -34724,7 +34826,7 @@
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="306" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E20" s="307">
         <v>200000</v>
@@ -34761,7 +34863,7 @@
       </c>
       <c r="C21" s="43"/>
       <c r="D21" s="304" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E21" s="305">
         <v>150000</v>
@@ -34798,7 +34900,7 @@
       </c>
       <c r="C22" s="43"/>
       <c r="D22" s="304" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E22" s="305">
         <v>150000</v>
@@ -34829,17 +34931,17 @@
     </row>
     <row r="23" spans="1:29" ht="21.75">
       <c r="A23" s="272" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" s="131">
         <v>20000</v>
       </c>
       <c r="C23" s="132"/>
       <c r="D23" s="304" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E23" s="305">
-        <v>90000</v>
+        <v>81000</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="8"/>
@@ -34867,14 +34969,14 @@
     </row>
     <row r="24" spans="1:29" ht="21.75">
       <c r="A24" s="272" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="131">
         <v>28000</v>
       </c>
       <c r="C24" s="132"/>
       <c r="D24" s="304" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E24" s="305">
         <v>70000</v>
@@ -34905,14 +35007,14 @@
     </row>
     <row r="25" spans="1:29" ht="21.75">
       <c r="A25" s="272" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" s="131">
         <v>40000</v>
       </c>
       <c r="C25" s="132"/>
       <c r="D25" s="304" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E25" s="305">
         <v>30000</v>
@@ -34949,10 +35051,10 @@
         <v>129725</v>
       </c>
       <c r="C26" s="133"/>
-      <c r="D26" s="364" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" s="365">
+      <c r="D26" s="315" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="316">
         <v>30000</v>
       </c>
       <c r="H26" s="8"/>
